--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P37_trail11 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P37_trail11 Features.xlsx
@@ -3268,7 +3268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3279,29 +3279,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3322,115 +3320,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3447,72 +3435,66 @@
         <v>7.486294535991614e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2.067317076521234</v>
+        <v>4.372836538238021e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4.474441424874649</v>
+        <v>2.242983602120009e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4.372836538238021e-07</v>
+        <v>-0.09419678562466818</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.242983602120009e-06</v>
+        <v>0.264963045170482</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.09419678562466818</v>
+        <v>0.07890569877659688</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.264963045170482</v>
+        <v>1.646533587179714</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.07890569877659688</v>
+        <v>1.498385800815955</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.564129546102492</v>
+        <v>4.33271471216718</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.498385800815955</v>
+        <v>2.726974996489131e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.33271471216718</v>
+        <v>62090454.66976714</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.726974996489131e-15</v>
+        <v>1.786465560925079e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>62090454.66976714</v>
+        <v>10.51310098396614</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.786465560925079e-06</v>
+        <v>0.000131803186656755</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>10.51310098396614</v>
+        <v>8.126604079878025</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.000131803186656755</v>
+        <v>1.288984116599977</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.126604079878025</v>
+        <v>0.008704505704419571</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.288984116599977</v>
+        <v>2.95896884065158</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.008704505704419571</v>
+        <v>0.9490248700833306</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.95896884065158</v>
+        <v>1.824072662862918</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9490248700833306</v>
+        <v>20</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.824072662862918</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2005891967900144</v>
       </c>
     </row>
@@ -3527,72 +3509,66 @@
         <v>6.330366738442493e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.678619553082355</v>
+        <v>3.293763339513546e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>2.036097627069728</v>
+        <v>2.236823378216297e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3.293763339513546e-07</v>
+        <v>-0.08472874835102939</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.236823378216297e-06</v>
+        <v>0.2339725595830453</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.08472874835102939</v>
+        <v>0.06178397742277232</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2339725595830453</v>
+        <v>1.652976716064486</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.06178397742277232</v>
+        <v>1.4983403636785</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.567073497784056</v>
+        <v>4.556184195954016</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.4983403636785</v>
+        <v>2.466032506505458e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.556184195954016</v>
+        <v>68583620.76973955</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.466032506505458e-15</v>
+        <v>1.619951308464382e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>68583620.76973955</v>
+        <v>11.59950925270399</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.619951308464382e-06</v>
+        <v>0.0001470155226307247</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>11.59950925270399</v>
+        <v>9.735716748791377</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001470155226307247</v>
+        <v>1.215255457176381</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.735716748791377</v>
+        <v>0.01393474584990065</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.215255457176381</v>
+        <v>2.755455721686243</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01393474584990065</v>
+        <v>0.9487899525916177</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.755455721686243</v>
+        <v>1.805968976495305</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9487899525916177</v>
+        <v>20</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.805968976495305</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2070225684850248</v>
       </c>
     </row>
@@ -3607,72 +3583,66 @@
         <v>5.659706061081782e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.521373922625474</v>
+        <v>2.518751271560435e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1.060303231888247</v>
+        <v>2.232106134991493e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.518751271560435e-07</v>
+        <v>-0.07347938183033002</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.232106134991493e-06</v>
+        <v>0.2012321210693447</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.07347938183033002</v>
+        <v>0.0458134885146363</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2012321210693447</v>
+        <v>1.649603781474078</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.0458134885146363</v>
+        <v>1.487711591887539</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.564205253775215</v>
+        <v>4.667939184435187</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.487711591887539</v>
+        <v>2.085976858243721e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.667939184435187</v>
+        <v>78491670.62499596</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.085976858243721e-15</v>
+        <v>1.402918050557458e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>78491670.62499596</v>
+        <v>12.85158318272447</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.402918050557458e-06</v>
+        <v>0.0001424669054612552</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>12.85158318272447</v>
+        <v>8.8024687295782</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001424669054612552</v>
+        <v>1.246677054497946</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.8024687295782</v>
+        <v>0.01103882816303838</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.246677054497946</v>
+        <v>2.996468840815132</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01103882816303838</v>
+        <v>0.9487061172084338</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.996468840815132</v>
+        <v>1.864520733656464</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9487061172084338</v>
+        <v>20</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.864520733656464</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2069064194569375</v>
       </c>
     </row>
@@ -3687,72 +3657,66 @@
         <v>5.284209030865838e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1.539398602775457</v>
+        <v>2.046558275282444e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1.121797053375707</v>
+        <v>2.228360131356598e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.046558275282444e-07</v>
+        <v>-0.06459197569931613</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.228360131356598e-06</v>
+        <v>0.1833335703325052</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.06459197569931613</v>
+        <v>0.03775237625538189</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1833335703325052</v>
+        <v>1.752678876950617</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.03775237625538189</v>
+        <v>1.543278907751172</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.67447939627494</v>
+        <v>4.433334190244084</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.543278907751172</v>
+        <v>1.795976716545559e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.433334190244084</v>
+        <v>86228369.42348567</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.795976716545559e-15</v>
+        <v>1.348971485920806e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>86228369.42348567</v>
+        <v>13.35368260119914</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.348971485920806e-06</v>
+        <v>0.0001343196327988914</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>13.35368260119914</v>
+        <v>6.603478182034213</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001343196327988914</v>
+        <v>2.328835961384867</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>6.603478182034213</v>
+        <v>0.005857131713049175</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>2.328835961384867</v>
+        <v>3.287534163362633</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.005857131713049175</v>
+        <v>0.9572529434545175</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.287534163362633</v>
+        <v>1.721888466474885</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9572529434545175</v>
+        <v>44</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.721888466474885</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2272024025754985</v>
       </c>
     </row>
@@ -3767,72 +3731,66 @@
         <v>5.053370421964008e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1.622880768613806</v>
+        <v>1.944073900614723e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1.566057504023304</v>
+        <v>2.225144251922593e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.944073900614723e-07</v>
+        <v>-0.06112673651559103</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.225144251922593e-06</v>
+        <v>0.1830451659694447</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.06112673651559103</v>
+        <v>0.03723771907984103</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1830451659694447</v>
+        <v>1.775185145809272</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03723771907984103</v>
+        <v>1.592049363550831</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.707437612761905</v>
+        <v>5.556297528835337</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.592049363550831</v>
+        <v>7.043433148563621e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>5.556297528835337</v>
+        <v>226383584.0749719</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>7.043433148563621e-16</v>
+        <v>5.173303209962844e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>226383584.0749719</v>
+        <v>36.09726182964364</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.173303209962844e-07</v>
+        <v>0.0001128855179375027</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>36.09726182964364</v>
+        <v>6.357110920651749</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001128855179375027</v>
+        <v>1.889266983118493</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>6.357110920651749</v>
+        <v>0.00456202654861487</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.889266983118493</v>
+        <v>3.328959672473299</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.00456202654861487</v>
+        <v>0.9583756568345874</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.328959672473299</v>
+        <v>1.684765874924399</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9583756568345874</v>
+        <v>59</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.684765874924399</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2896791449970238</v>
       </c>
     </row>
@@ -3847,72 +3805,66 @@
         <v>4.860996339934901e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1.714507324010238</v>
+        <v>1.993503636807436e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>2.132074223974655</v>
+        <v>2.222062069894776e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.993503636807436e-07</v>
+        <v>-0.06426626544265907</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.222062069894776e-06</v>
+        <v>0.18983376736063</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.06426626544265907</v>
+        <v>0.04016637294780283</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.18983376736063</v>
+        <v>1.822176300618392</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.04016637294780283</v>
+        <v>2.012761645762113</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.769178370448656</v>
+        <v>4.631530310970842</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.012761645762113</v>
+        <v>4.222089675960747e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.631530310970842</v>
+        <v>374692321.7236064</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4.222089675960747e-16</v>
+        <v>3.1615679672399e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>374692321.7236064</v>
+        <v>59.27574764142819</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.1615679672399e-07</v>
+        <v>0.0001149140990530037</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>59.27574764142819</v>
+        <v>7.908337631148357</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001149140990530037</v>
+        <v>1.373714930185122</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>7.908337631148357</v>
+        <v>0.007186935069949241</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.373714930185122</v>
+        <v>3.13496585067697</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.007186935069949241</v>
+        <v>0.9588154154270434</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.13496585067697</v>
+        <v>1.608355901921739</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9588154154270434</v>
+        <v>59</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.608355901921739</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.3420270431431998</v>
       </c>
     </row>
@@ -3927,72 +3879,66 @@
         <v>4.637254748073636e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1.79015453788608</v>
+        <v>2.031063591970373e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>2.767812703071828</v>
+        <v>2.21886254275187e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.031063591970373e-07</v>
+        <v>-0.07033903236287978</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.21886254275187e-06</v>
+        <v>0.1978168823486313</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.07033903236287978</v>
+        <v>0.04407927842071386</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1978168823486313</v>
+        <v>1.849339872596379</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.04407927842071386</v>
+        <v>1.868576280581008</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.801690474920446</v>
+        <v>4.663502235577925</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.868576280581008</v>
+        <v>4.164396722831215e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.663502235577925</v>
+        <v>400144364.8886009</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>4.164396722831215e-16</v>
+        <v>2.984842447955268e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>400144364.8886009</v>
+        <v>66.67845165792922</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.984842447955268e-07</v>
+        <v>0.0001180939869383966</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>66.67845165792922</v>
+        <v>8.256333563962789</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001180939869383966</v>
+        <v>1.390595039326203</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.256333563962789</v>
+        <v>0.008050117994248918</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.390595039326203</v>
+        <v>3.146250668421856</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.008050117994248918</v>
+        <v>0.9595408497192764</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.146250668421856</v>
+        <v>1.604776236579525</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9595408497192764</v>
+        <v>60</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.604776236579525</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.3583144433575914</v>
       </c>
     </row>
@@ -4007,72 +3953,66 @@
         <v>4.374842923483158e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>1.835349778446053</v>
+        <v>2.06420090215603e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>3.451488518404163</v>
+        <v>2.215567978631791e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.06420090215603e-07</v>
+        <v>-0.07593956861883262</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.215567978631791e-06</v>
+        <v>0.2094026669805729</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.07593956861883262</v>
+        <v>0.04961661035796006</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2094026669805729</v>
+        <v>1.84962310067823</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.04961661035796006</v>
+        <v>1.798853974741425</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.79576425859385</v>
+        <v>4.882641332970445</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.798853974741425</v>
+        <v>3.798978433895792e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.882641332970445</v>
+        <v>435977479.3186551</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.798978433895792e-16</v>
+        <v>2.7434896397837e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>435977479.3186551</v>
+        <v>72.20960018284701</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.7434896397837e-07</v>
+        <v>0.0001186936325984177</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>72.20960018284701</v>
+        <v>7.302044117312422</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001186936325984177</v>
+        <v>1.566043264296933</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.302044117312422</v>
+        <v>0.006328726483276327</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.566043264296933</v>
+        <v>3.266585415009247</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.006328726483276327</v>
+        <v>0.9594786876914234</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.266585415009247</v>
+        <v>1.577115766965819</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9594786876914234</v>
+        <v>77</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.577115766965819</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.3289460575556625</v>
       </c>
     </row>
@@ -4087,72 +4027,66 @@
         <v>4.070362236680423e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1.814884341778819</v>
+        <v>2.105333316033931e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>4.093521690976877</v>
+        <v>2.212190406658102e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.105333316033931e-07</v>
+        <v>-0.08493458947455811</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.212190406658102e-06</v>
+        <v>0.2237440337693885</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.08493458947455811</v>
+        <v>0.05727321083957045</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2237440337693885</v>
+        <v>1.853262849654719</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.05727321083957045</v>
+        <v>1.832105499729747</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.801930314433113</v>
+        <v>4.807178243305712</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.832105499729747</v>
+        <v>3.008277018219528e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.807178243305712</v>
+        <v>554608420.123922</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3.008277018219528e-16</v>
+        <v>2.158424433695365e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>554608420.123922</v>
+        <v>92.53174311869999</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>2.158424433695365e-07</v>
+        <v>0.0001229244599420645</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>92.53174311869999</v>
+        <v>7.44937151599613</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001229244599420645</v>
+        <v>1.56443548887122</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.44937151599613</v>
+        <v>0.006821463771242936</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.56443548887122</v>
+        <v>3.203941552793428</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.006821463771242936</v>
+        <v>0.9595086865366305</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.203941552793428</v>
+        <v>1.581909131761909</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9595086865366305</v>
+        <v>77</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.581909131761909</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.3322101156472589</v>
       </c>
     </row>
@@ -4167,72 +4101,66 @@
         <v>3.690545886327819e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>1.596150296660291</v>
+        <v>2.13831762734609e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>4.144192995198626</v>
+        <v>2.208657312879796e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2.13831762734609e-07</v>
+        <v>-0.09657595117942934</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.208657312879796e-06</v>
+        <v>0.2455711136826886</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.09657595117942934</v>
+        <v>0.0696296278810821</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.2455711136826886</v>
+        <v>1.867439355932858</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.0696296278810821</v>
+        <v>2.17624968974037</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.822617388157486</v>
+        <v>4.694731347990936</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.17624968974037</v>
+        <v>2.878824391418846e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.694731347990936</v>
+        <v>568674420.5862286</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.878824391418846e-16</v>
+        <v>2.107248985121059e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>568674420.5862286</v>
+        <v>93.09847375312968</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.107248985121059e-07</v>
+        <v>0.0001298454845186686</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>93.09847375312968</v>
+        <v>8.053643316925983</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001298454845186686</v>
+        <v>1.466920915529066</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.053643316925983</v>
+        <v>0.008421930132907891</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.466920915529066</v>
+        <v>3.030646029000726</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.008421930132907891</v>
+        <v>0.9592796573482116</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.030646029000726</v>
+        <v>1.560063700029667</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9592796573482116</v>
+        <v>81</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.560063700029667</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.3492010121768422</v>
       </c>
     </row>
@@ -4247,72 +4175,66 @@
         <v>3.296685138465493e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1.075305852634689</v>
+        <v>2.011779237654729e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>3.072903318536892</v>
+        <v>2.205174256029353e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.011779237654729e-07</v>
+        <v>-0.1017465106094676</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.205174256029353e-06</v>
+        <v>0.2695870735563973</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.1017465106094676</v>
+        <v>0.08299681743767046</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.2695870735563973</v>
+        <v>1.866113596355564</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.08299681743767046</v>
+        <v>1.970429591613058</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.823034727263765</v>
+        <v>4.587960414429468</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.970429591613058</v>
+        <v>3.014375420556626e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.587960414429468</v>
+        <v>526315073.1792179</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3.014375420556626e-16</v>
+        <v>2.271956718606457e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>526315073.1792179</v>
+        <v>83.50047688854745</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.271956718606457e-07</v>
+        <v>0.0001333168838659303</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>83.50047688854745</v>
+        <v>8.207733820845338</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001333168838659303</v>
+        <v>1.406915771421337</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.207733820845338</v>
+        <v>0.008981144446978426</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.406915771421337</v>
+        <v>2.972391513143008</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.008981144446978426</v>
+        <v>0.9590756143533262</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.972391513143008</v>
+        <v>1.544219795737055</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9590756143533262</v>
+        <v>76</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.544219795737055</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.3876820244883816</v>
       </c>
     </row>
@@ -4327,72 +4249,66 @@
         <v>2.992655107040722e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.3953339515278129</v>
+        <v>1.767530886217466e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>1.527164159711205</v>
+        <v>2.202017356283256e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.767530886217466e-07</v>
+        <v>-0.09848387319522169</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.202017356283256e-06</v>
+        <v>0.2798133826644536</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.09848387319522169</v>
+        <v>0.08794372465098314</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.2798133826644536</v>
+        <v>1.872447243457188</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.08794372465098314</v>
+        <v>1.883876800733399</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.830464799716611</v>
+        <v>4.736342556700296</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.883876800733399</v>
+        <v>3.198299072090636e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.736342556700296</v>
+        <v>492375908.6949632</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>3.198299072090636e-16</v>
+        <v>2.430229114158969e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>492375908.6949632</v>
+        <v>77.53765506651111</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.430229114158969e-07</v>
+        <v>0.00013626420477219</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>77.53765506651111</v>
+        <v>8.423201929356456</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.00013626420477219</v>
+        <v>1.35991085125813</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.423201929356456</v>
+        <v>0.009667990396979832</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.35991085125813</v>
+        <v>2.979724082950267</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.009667990396979832</v>
+        <v>0.9589299551317888</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.979724082950267</v>
+        <v>1.532519620494904</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9589299551317888</v>
+        <v>76</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.532519620494904</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.4852618309080184</v>
       </c>
     </row>
@@ -4407,72 +4323,66 @@
         <v>2.805652576417311e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.1935787057600069</v>
+        <v>1.517521292199286e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.3648048639983448</v>
+        <v>2.19928858854635e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.517521292199286e-07</v>
+        <v>-0.08960370943092791</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.19928858854635e-06</v>
+        <v>0.2806919728174871</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.08960370943092791</v>
+        <v>0.08677205115977742</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.2806919728174871</v>
+        <v>1.868794273609856</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.08677205115977742</v>
+        <v>1.970993488871892</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.829237716609809</v>
+        <v>4.705479077374356</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.970993488871892</v>
+        <v>3.79395175062863e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.705479077374356</v>
+        <v>402728007.3060918</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>3.79395175062863e-16</v>
+        <v>2.958751072758679e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>402728007.3060918</v>
+        <v>61.53404572557805</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.958751072758679e-07</v>
+        <v>0.0001326402111872861</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>61.53404572557805</v>
+        <v>7.627585525168646</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001326402111872861</v>
+        <v>1.752899984733034</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>7.627585525168646</v>
+        <v>0.007717015570469801</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.752899984733034</v>
+        <v>3.219634849762064</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.007717015570469801</v>
+        <v>0.9593166447159458</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.219634849762064</v>
+        <v>1.584376664473097</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9593166447159458</v>
+        <v>76</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.584376664473097</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.5483233531519913</v>
       </c>
     </row>
@@ -4487,72 +4397,66 @@
         <v>2.707413137906624e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.5535149927602651</v>
+        <v>1.289020792572513e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.2678878460974592</v>
+        <v>2.19699907245697e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.289020792572513e-07</v>
+        <v>-0.07599512641926211</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.19699907245697e-06</v>
+        <v>0.2758268791267894</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.07599512641926211</v>
+        <v>0.08180757300958887</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.2758268791267894</v>
+        <v>1.893967256005743</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.08180757300958887</v>
+        <v>1.731506075028196</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.867115574244882</v>
+        <v>5.14447150748734</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.731506075028196</v>
+        <v>3.977289434865563e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>5.14447150748734</v>
+        <v>375737586.9959983</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>3.977289434865563e-16</v>
+        <v>3.19246744664007e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>375737586.9959983</v>
+        <v>56.15086882858023</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>3.19246744664007e-07</v>
+        <v>0.0001433606230844978</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>56.15086882858023</v>
+        <v>7.518287466445523</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001433606230844978</v>
+        <v>1.657342613393524</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>7.518287466445523</v>
+        <v>0.008103408531565045</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.657342613393524</v>
+        <v>3.191492510406002</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.008103408531565045</v>
+        <v>0.9591458152871495</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.191492510406002</v>
+        <v>1.470529702912048</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9591458152871495</v>
+        <v>71</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.470529702912048</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.5141526670291512</v>
       </c>
     </row>
@@ -4567,72 +4471,66 @@
         <v>2.666645031309581e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.6692192559558642</v>
+        <v>1.072386712741284e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.5416121259588662</v>
+        <v>2.19519519916091e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.072386712741284e-07</v>
+        <v>-0.0578384256110414</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.19519519916091e-06</v>
+        <v>0.2684663465666067</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.0578384256110414</v>
+        <v>0.07536885522061597</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.2684663465666067</v>
+        <v>1.896721539074954</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.07536885522061597</v>
+        <v>1.789300008892026</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.879970523167258</v>
+        <v>4.7178538251601</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.789300008892026</v>
+        <v>3.343429353205481e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.7178538251601</v>
+        <v>470283402.4101295</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>3.343429353205481e-16</v>
+        <v>2.56039511622953e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>470283402.4101295</v>
+        <v>73.94544964376475</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.56039511622953e-07</v>
+        <v>0.0001574979343332638</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>73.94544964376475</v>
+        <v>10.30968024526343</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001574979343332638</v>
+        <v>1.183632128576174</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>10.30968024526343</v>
+        <v>0.01674037775593456</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.183632128576174</v>
+        <v>2.954657969074764</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01674037775593456</v>
+        <v>0.9593059215420572</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.954657969074764</v>
+        <v>1.412847282907407</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9593059215420572</v>
+        <v>71</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.412847282907407</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.4795513476420838</v>
       </c>
     </row>
@@ -4647,72 +4545,66 @@
         <v>2.650829122051274e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.6424788013587786</v>
+        <v>9.564238778090562e-08</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.6637113720445771</v>
+        <v>2.193926397559601e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>9.564238778090562e-08</v>
+        <v>-0.03753050712335308</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.193926397559601e-06</v>
+        <v>0.2673368289526744</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.03753050712335308</v>
+        <v>0.07282935323850633</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.2673368289526744</v>
+        <v>1.878895527101101</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.07282935323850633</v>
+        <v>2.030227741246209</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.868713186499918</v>
+        <v>3.955907646871492</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.030227741246209</v>
+        <v>3.506751247734002e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.955907646871492</v>
+        <v>456120776.3847628</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>3.506751247734002e-16</v>
+        <v>2.61773828149935e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>456120776.3847628</v>
+        <v>72.95661404585934</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.61773828149935e-07</v>
+        <v>0.0001639998183264035</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>72.95661404585934</v>
+        <v>12.41236596521652</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001639998183264035</v>
+        <v>1.032044220374321</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>12.41236596521652</v>
+        <v>0.02526693194225744</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.032044220374321</v>
+        <v>2.794954149017828</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.02526693194225744</v>
+        <v>0.9595268787754375</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.794954149017828</v>
+        <v>1.343799093576361</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9595268787754375</v>
+        <v>67</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.343799093576361</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.5199409468363199</v>
       </c>
     </row>
@@ -4727,72 +4619,66 @@
         <v>2.641484588784266e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.5877581035892666</v>
+        <v>9.564238778090562e-08</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.712273436710043</v>
+        <v>2.193177191313974e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>9.564238778090562e-08</v>
+        <v>-0.02029616540652618</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.193177191313974e-06</v>
+        <v>0.2689733597335099</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.02029616540652618</v>
+        <v>0.07273789268282795</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.2689733597335099</v>
+        <v>1.827571080983877</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.07273789268282795</v>
+        <v>1.690612348408659</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.78785191671014</v>
+        <v>5.525265421743711</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.690612348408659</v>
+        <v>8.220970546741284e-16</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>5.525265421743711</v>
+        <v>204929205.6706457</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>8.220970546741284e-16</v>
+        <v>5.769722395599005e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>204929205.6706457</v>
+        <v>34.52477092094033</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>5.769722395599005e-07</v>
+        <v>0.0002102599449758384</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>34.52477092094033</v>
+        <v>10.04932290891727</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0002102599449758384</v>
+        <v>1.607337067387462</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>10.04932290891727</v>
+        <v>0.02123391864962695</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.607337067387462</v>
+        <v>2.87883926598479</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.02123391864962695</v>
+        <v>0.9597476287565821</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.87883926598479</v>
+        <v>1.64334760572883</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9597476287565821</v>
+        <v>67</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.64334760572883</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.3590677762502557</v>
       </c>
     </row>
@@ -4807,72 +4693,66 @@
         <v>2.637394878371876e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.548608352118105</v>
+        <v>9.564238778090562e-08</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.7343949615254353</v>
+        <v>2.192775063647915e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>9.564238778090562e-08</v>
+        <v>-0.01161622294111946</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.192775063647915e-06</v>
+        <v>0.2675221011227262</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.01161622294111946</v>
+        <v>0.07169958676160647</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.2675221011227262</v>
+        <v>1.804818084349952</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.07169958676160647</v>
+        <v>1.725084932775198</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.757677950906687</v>
+        <v>4.409000141728038</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.725084932775198</v>
+        <v>1.317304613641062e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.409000141728038</v>
+        <v>127493432.4111364</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.317304613641062e-15</v>
+        <v>9.22863869847014e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>127493432.4111364</v>
+        <v>21.41222704596892</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>9.22863869847014e-07</v>
+        <v>0.0002236645107747102</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>21.41222704596892</v>
+        <v>9.087405648334553</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0002236645107747102</v>
+        <v>1.863559065558658</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>9.087405648334553</v>
+        <v>0.01847042586143392</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.863559065558658</v>
+        <v>2.830069425438515</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01847042586143392</v>
+        <v>0.9567983892950513</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.830069425438515</v>
+        <v>1.635696522797297</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9567983892950513</v>
+        <v>67</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.635696522797297</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.2138055684145231</v>
       </c>
     </row>
@@ -4887,72 +4767,66 @@
         <v>2.63629451644388e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.5196605209873114</v>
+        <v>9.564238778090562e-08</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.7526233260840103</v>
+        <v>2.192505919296801e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>9.564238778090562e-08</v>
+        <v>-0.009533476954001845</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.192505919296801e-06</v>
+        <v>0.2672546780833097</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.009533476954001845</v>
+        <v>0.07151593474716085</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.2672546780833097</v>
+        <v>1.776339939209605</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.07151593474716085</v>
+        <v>1.750810304114459</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.716786858652611</v>
+        <v>4.353563468445611</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.750810304114459</v>
+        <v>1.351066351756008e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.353563468445611</v>
+        <v>123948836.6813676</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.351066351756008e-15</v>
+        <v>9.436532146875897e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>123948836.6813676</v>
+        <v>20.75685675178112</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>9.436532146875897e-07</v>
+        <v>0.0001524525535944907</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>20.75685675178112</v>
+        <v>9.310228739481571</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001524525535944907</v>
+        <v>1.276127288244488</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>9.310228739481571</v>
+        <v>0.01321464210370255</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.276127288244488</v>
+        <v>2.936202341050419</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01321464210370255</v>
+        <v>0.9555985480671632</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.936202341050419</v>
+        <v>1.720079969225667</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9555985480671632</v>
+        <v>45</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.720079969225667</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.2042574700326285</v>
       </c>
     </row>
@@ -4967,72 +4841,66 @@
         <v>2.634976012083962e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.4935246823696617</v>
+        <v>9.564238778090562e-08</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.7670078542762897</v>
+        <v>2.192262474756845e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>9.564238778090562e-08</v>
+        <v>-0.008667603965167806</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.192262474756845e-06</v>
+        <v>0.2676347209506031</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.008667603965167806</v>
+        <v>0.07170171978036445</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.2676347209506031</v>
+        <v>1.768126372757467</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.07170171978036445</v>
+        <v>1.728055674863506</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.701148278735891</v>
+        <v>4.244582616645591</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.728055674863506</v>
+        <v>1.421335018506516e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.244582616645591</v>
+        <v>114009716.449646</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.421335018506516e-15</v>
+        <v>1.0230481702425e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>114009716.449646</v>
+        <v>18.47481878996937</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.0230481702425e-06</v>
+        <v>0.000138806281162124</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>18.47481878996937</v>
+        <v>9.405548598543021</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.000138806281162124</v>
+        <v>1.192815756080389</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>9.405548598543021</v>
+        <v>0.0122794066670998</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.192815756080389</v>
+        <v>2.811520287780464</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.0122794066670998</v>
+        <v>0.9551660895439835</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.811520287780464</v>
+        <v>1.731465995293652</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9551660895439835</v>
+        <v>30</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.731465995293652</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.2093728410087828</v>
       </c>
     </row>
@@ -5047,72 +4915,66 @@
         <v>2.631764911411037e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.4743285723417977</v>
+        <v>9.564238778090562e-08</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.7707232914180313</v>
+        <v>2.192068761189523e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>9.564238778090562e-08</v>
+        <v>-0.005616423918512801</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.192068761189523e-06</v>
+        <v>0.2702082611098433</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.005616423918512801</v>
+        <v>0.07303233550574252</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.2702082611098433</v>
+        <v>1.769872566605803</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.07303233550574252</v>
+        <v>1.667258998836529</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.699329325695696</v>
+        <v>4.331417310299651</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.667258998836529</v>
+        <v>1.627270696172656e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.331417310299651</v>
+        <v>99707117.89113575</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.627270696172656e-15</v>
+        <v>1.171268692851445e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>99707117.89113575</v>
+        <v>16.17752685425486</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.171268692851445e-06</v>
+        <v>0.0001349955865291886</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>16.17752685425486</v>
+        <v>8.482745726931139</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001349955865291886</v>
+        <v>1.24017822342178</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>8.482745726931139</v>
+        <v>0.00971387405413961</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.24017822342178</v>
+        <v>2.901602360034434</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.00971387405413961</v>
+        <v>0.9536270541486385</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.901602360034434</v>
+        <v>1.720935782482947</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9536270541486385</v>
+        <v>30</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.720935782482947</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.2004911620153783</v>
       </c>
     </row>
@@ -5127,72 +4989,66 @@
         <v>2.62814911525222e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.4681076531170744</v>
+        <v>9.564238778090562e-08</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.7659142379394046</v>
+        <v>2.191979650565177e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>9.564238778090562e-08</v>
+        <v>-0.0007026733928354791</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.191979650565177e-06</v>
+        <v>0.2778424277854719</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.0007026733928354791</v>
+        <v>0.07716011889438831</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.2778424277854719</v>
+        <v>1.749629029545897</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.07716011889438831</v>
+        <v>1.693289452463098</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.682399871608435</v>
+        <v>4.305649197047288</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.693289452463098</v>
+        <v>1.918160438728641e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.305649197047288</v>
+        <v>79915822.90246764</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.918160438728641e-15</v>
+        <v>1.439428612268072e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>79915822.90246764</v>
+        <v>12.25040597099999</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.439428612268072e-06</v>
+        <v>0.0001417161989805451</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>12.25040597099999</v>
+        <v>7.780248041283897</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001417161989805451</v>
+        <v>1.36094621969138</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>7.780248041283897</v>
+        <v>0.008578401743934252</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.36094621969138</v>
+        <v>2.968733593415013</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.008578401743934252</v>
+        <v>0.9532184947212939</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.968733593415013</v>
+        <v>1.751615990164824</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9532184947212939</v>
+        <v>28</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.751615990164824</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.1796245063322433</v>
       </c>
     </row>
@@ -5207,72 +5063,66 @@
         <v>2.639422552896673e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.4603224089690266</v>
+        <v>9.564238778090562e-08</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.7759370534282288</v>
+        <v>2.192084149620612e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>9.564238778090562e-08</v>
+        <v>0.01045786262324457</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.192084149620612e-06</v>
+        <v>0.2975357859171177</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.01045786262324457</v>
+        <v>0.08856210276113777</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.2975357859171177</v>
+        <v>1.736051380796613</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.08856210276113777</v>
+        <v>1.609030645509197</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.666896666005036</v>
+        <v>4.524401686137928</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.609030645509197</v>
+        <v>2.369364401160804e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.524401686137928</v>
+        <v>63727027.88053953</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>2.369364401160804e-15</v>
+        <v>1.803395564369596e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>63727027.88053953</v>
+        <v>9.622306523385687</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.803395564369596e-06</v>
+        <v>0.0001635096734108413</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>9.622306523385687</v>
+        <v>8.485080041002234</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001635096734108413</v>
+        <v>1.428852727031725</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>8.485080041002234</v>
+        <v>0.01177213782244152</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.428852727031725</v>
+        <v>2.865583659737739</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01177213782244152</v>
+        <v>0.9513346058224569</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.865583659737739</v>
+        <v>1.745439619137765</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9513346058224569</v>
+        <v>11</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.745439619137765</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.1583664409662676</v>
       </c>
     </row>
@@ -5287,72 +5137,66 @@
         <v>2.722453799365441e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.3297404282903105</v>
+        <v>1.275213626128455e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.6610987883224668</v>
+        <v>2.192621255419978e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1.275213626128455e-07</v>
+        <v>0.03062428647291096</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2.192621255419978e-06</v>
+        <v>0.3285030974501234</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.03062428647291096</v>
+        <v>0.1087409165573104</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.3285030974501234</v>
+        <v>1.639440701205457</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.1087409165573104</v>
+        <v>1.613970879467204</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.574296773743886</v>
+        <v>4.449570223842313</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.613970879467204</v>
+        <v>2.739710293083505e-15</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.449570223842313</v>
+        <v>62374797.75561382</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>2.739710293083505e-15</v>
+        <v>1.668141443869256e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>62374797.75561382</v>
+        <v>10.65915904425784</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>1.668141443869256e-06</v>
+        <v>0.0001715654576036738</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>10.65915904425784</v>
+        <v>10.57765743289095</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001715654576036738</v>
+        <v>1.158313689327388</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>10.57765743289095</v>
+        <v>0.01919591634985968</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.158313689327388</v>
+        <v>2.674960447278415</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01919591634985968</v>
+        <v>0.9466112803068721</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.674960447278415</v>
+        <v>1.681108553813346</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9466112803068721</v>
+        <v>12</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.681108553813346</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.1588284655624053</v>
       </c>
     </row>
@@ -5367,72 +5211,66 @@
         <v>2.935907849662736e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.08256627676382651</v>
+        <v>1.543307233343791e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>0.1321049390766134</v>
+        <v>2.193702151512875e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1.543307233343791e-07</v>
+        <v>0.042962322146226</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>2.193702151512875e-06</v>
+        <v>0.3259335866359026</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.042962322146226</v>
+        <v>0.1080596343588691</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.3259335866359026</v>
+        <v>1.5630784972284</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.1080596343588691</v>
+        <v>1.429981357319354</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.482513695765628</v>
+        <v>4.949624585393136</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.429981357319354</v>
+        <v>6.271123675004792e-15</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.949624585393136</v>
+        <v>28967460.21624139</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>6.271123675004792e-15</v>
+        <v>3.463853223806048e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>28967460.21624139</v>
+        <v>5.262186112298243</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>3.463853223806048e-06</v>
+        <v>0.0001679864593315539</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>5.262186112298243</v>
+        <v>10.62832177287262</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001679864593315539</v>
+        <v>1.179091954720305</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>10.62832177287262</v>
+        <v>0.01897595601241914</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.179091954720305</v>
+        <v>2.753848358739507</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.01897595601241914</v>
+        <v>0.9413637224683683</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.753848358739507</v>
+        <v>1.891405828170246</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9413637224683683</v>
+        <v>5</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.891405828170246</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.1597695585949643</v>
       </c>
     </row>
@@ -5447,72 +5285,66 @@
         <v>3.198166268423398e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.4786538248412839</v>
+        <v>1.587960786250841e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>0.8662939826333416</v>
+        <v>2.194969771858648e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1.587960786250841e-07</v>
+        <v>0.03733256981592115</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>2.194969771858648e-06</v>
+        <v>0.2999344122807087</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.03733256981592115</v>
+        <v>0.09134626630686447</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.2999344122807087</v>
+        <v>1.544802457899151</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.09134626630686447</v>
+        <v>1.412185225107052</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.464567117987094</v>
+        <v>3.994674905646225</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.412185225107052</v>
+        <v>1.060357657492863e-14</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.994674905646225</v>
+        <v>18040624.79689873</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1.060357657492863e-14</v>
+        <v>5.562033073989258e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>18040624.79689873</v>
+        <v>3.451083963356504</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>5.562033073989258e-06</v>
+        <v>0.0001853306863369767</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>3.451083963356504</v>
+        <v>8.898824702162731</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001853306863369767</v>
+        <v>1.698502430819721</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>8.898824702162731</v>
+        <v>0.01467616674691784</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.698502430819721</v>
+        <v>2.937276565777754</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01467616674691784</v>
+        <v>0.9411969752505068</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.937276565777754</v>
+        <v>1.851719280469504</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9411969752505068</v>
+        <v>5</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.851719280469504</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1431450469413523</v>
       </c>
     </row>
@@ -5527,72 +5359,66 @@
         <v>3.39249998974091e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.6420838977844858</v>
+        <v>1.587960786250841e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>0.9115469812590624</v>
+        <v>2.196017084751189e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1.587960786250841e-07</v>
+        <v>0.02653138429540115</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2.196017084751189e-06</v>
+        <v>0.2896673047709656</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.02653138429540115</v>
+        <v>0.08458939276654164</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.2896673047709656</v>
+        <v>1.498077879343578</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.08458939276654164</v>
+        <v>1.412046189865112</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.414387554460978</v>
+        <v>3.88222166221137</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.412046189865112</v>
+        <v>1.122676424018441e-14</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.88222166221137</v>
+        <v>17667571.81318911</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1.122676424018441e-14</v>
+        <v>5.609604091763116e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>17667571.81318911</v>
+        <v>3.504356923004652</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>5.609604091763116e-06</v>
+        <v>0.0001497455391736829</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>3.504356923004652</v>
+        <v>8.945557419137511</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001497455391736829</v>
+        <v>1.374883923484121</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>8.945557419137511</v>
+        <v>0.01198308691278476</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.374883923484121</v>
+        <v>3.01024548610602</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.01198308691278476</v>
+        <v>0.9383160854094306</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.01024548610602</v>
+        <v>1.881687458982029</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9383160854094306</v>
+        <v>5</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.881687458982029</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.1590071796049813</v>
       </c>
     </row>
@@ -5607,72 +5433,66 @@
         <v>3.50551349909418e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.663211759141466</v>
+        <v>1.587960786250841e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0.6945565697270411</v>
+        <v>2.196802229662013e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1.587960786250841e-07</v>
+        <v>0.01949821195956218</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2.196802229662013e-06</v>
+        <v>0.2890843825143891</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.01949821195956218</v>
+        <v>0.08392495145223026</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.2890843825143891</v>
+        <v>1.481818545125191</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.08392495145223026</v>
+        <v>1.407055250241641</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.395589935170053</v>
+        <v>3.901274819397723</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.407055250241641</v>
+        <v>1.111737283597419e-14</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.901274819397723</v>
+        <v>17924148.48035566</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1.111737283597419e-14</v>
+        <v>5.504349644027226e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>17924148.48035566</v>
+        <v>3.571735055671882</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>5.504349644027226e-06</v>
+        <v>0.0001392735790031706</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>3.571735055671882</v>
+        <v>9.450333760515145</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001392735790031706</v>
+        <v>1.191966836050124</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>9.450333760515145</v>
+        <v>0.01243835735245104</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.191966836050124</v>
+        <v>2.878579266705949</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01243835735245104</v>
+        <v>0.9371443561435775</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.878579266705949</v>
+        <v>1.890775223036777</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9371443561435775</v>
+        <v>8</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.890775223036777</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.1753509632315149</v>
       </c>
     </row>
@@ -5687,72 +5507,66 @@
         <v>3.565730455141039e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.6343071872519815</v>
+        <v>1.587960786250841e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>0.4930777781704854</v>
+        <v>2.19741246434642e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1.587960786250841e-07</v>
+        <v>0.01515588241448025</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>2.19741246434642e-06</v>
+        <v>0.2898141080680692</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.01515588241448025</v>
+        <v>0.08420538627901714</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.2898141080680692</v>
+        <v>1.4896162417482</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.08420538627901714</v>
+        <v>1.403530109274827</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.401467091032899</v>
+        <v>3.906080509776386</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.403530109274827</v>
+        <v>1.109003403132584e-14</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.906080509776386</v>
+        <v>18143549.96068462</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1.109003403132584e-14</v>
+        <v>5.463625701354545e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>18143549.96068462</v>
+        <v>3.650710616118157</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>5.463625701354545e-06</v>
+        <v>0.0001404895101011162</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>3.650710616118157</v>
+        <v>9.122451334256965</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001404895101011162</v>
+        <v>1.212879078353448</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>9.122451334256965</v>
+        <v>0.01169141316746043</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.212879078353448</v>
+        <v>2.838640598465649</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.01169141316746043</v>
+        <v>0.9361139444191896</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.838640598465649</v>
+        <v>1.88164214049411</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9361139444191896</v>
+        <v>8</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.88164214049411</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.176388672304226</v>
       </c>
     </row>
@@ -5767,72 +5581,66 @@
         <v>3.595822083473939e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.5968986017659964</v>
+        <v>1.587960786250841e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>0.3643270099632292</v>
+        <v>2.197893064065746e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1.587960786250841e-07</v>
+        <v>0.01163502079843519</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>2.197893064065746e-06</v>
+        <v>0.2907177713067893</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.01163502079843519</v>
+        <v>0.08464590995558713</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.2907177713067893</v>
+        <v>1.489697388005708</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.08464590995558713</v>
+        <v>1.39787242040988</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.39925126543246</v>
+        <v>3.906948359074564</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.39787242040988</v>
+        <v>1.108510772648373e-14</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.906948359074564</v>
+        <v>17635500.29634815</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>1.108510772648373e-14</v>
+        <v>5.540574849121741e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>17635500.29634815</v>
+        <v>3.447589005844667</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>5.540574849121741e-06</v>
+        <v>0.0001434417636137243</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>3.447589005844667</v>
+        <v>8.28600439630234</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001434417636137243</v>
+        <v>1.272549954673537</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>8.28600439630234</v>
+        <v>0.009848405794598697</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.272549954673537</v>
+        <v>2.911102341745229</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.009848405794598697</v>
+        <v>0.9369123338637971</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.911102341745229</v>
+        <v>1.9039621535062</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9369123338637971</v>
+        <v>8</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.9039621535062</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.165429773816309</v>
       </c>
     </row>
@@ -5847,72 +5655,66 @@
         <v>3.610672571220781e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.5660351256179619</v>
+        <v>1.587960786250841e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>0.2908175430066504</v>
+        <v>2.198250956429351e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1.587960786250841e-07</v>
+        <v>0.008368963069947668</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2.198250956429351e-06</v>
+        <v>0.2910191545210102</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.008368963069947668</v>
+        <v>0.08476089279869087</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.2910191545210102</v>
+        <v>1.506401877130719</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.08476089279869087</v>
+        <v>1.447200074298056</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.416084316463528</v>
+        <v>3.882467551222745</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.447200074298056</v>
+        <v>1.122534223188338e-14</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.882467551222745</v>
+        <v>17357168.11732598</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1.122534223188338e-14</v>
+        <v>5.658706843080627e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>17357168.11732598</v>
+        <v>3.381873279360536</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>5.658706843080627e-06</v>
+        <v>0.000160571125075762</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>3.381873279360536</v>
+        <v>8.095280111044058</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.000160571125075762</v>
+        <v>1.522662344889505</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>8.095280111044058</v>
+        <v>0.01052279747166599</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.522662344889505</v>
+        <v>2.921292078485034</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.01052279747166599</v>
+        <v>0.9360515759602134</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.921292078485034</v>
+        <v>1.923211629653381</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9360515759602134</v>
+        <v>7</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.923211629653381</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.1479557674162049</v>
       </c>
     </row>
@@ -6289,7 +6091,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.73239135978528</v>
+        <v>1.746433266695304</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.46361306756349</v>
@@ -6378,7 +6180,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.753538361091285</v>
+        <v>1.76468626471876</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.505389658939767</v>
@@ -6467,7 +6269,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.752037918654419</v>
+        <v>1.763418395219133</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.25981391256201</v>
@@ -6556,7 +6358,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.786208015172396</v>
+        <v>1.790621308830846</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.084397114012213</v>
@@ -6645,7 +6447,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.768010991425517</v>
+        <v>1.775414495062915</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.598021069632808</v>
@@ -6734,7 +6536,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.756647938529706</v>
+        <v>1.769086700866224</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.134115394184962</v>
@@ -6823,7 +6625,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.747938542476829</v>
+        <v>1.761265403238067</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.034699843004016</v>
@@ -6912,7 +6714,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.754668667350328</v>
+        <v>1.769939332655588</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.971037845180956</v>
@@ -7001,7 +6803,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.797162775803925</v>
+        <v>1.807345301867339</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.095494705670893</v>
@@ -7090,7 +6892,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.786569213550645</v>
+        <v>1.803084744413354</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.463549296160544</v>
@@ -7179,7 +6981,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.769123003934903</v>
+        <v>1.78704480929325</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.517779241271315</v>
@@ -7268,7 +7070,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.769962216626634</v>
+        <v>1.786223284729242</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.828702586097103</v>
@@ -7357,7 +7159,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.783372514195601</v>
+        <v>1.798731205729224</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.778704916823679</v>
@@ -7446,7 +7248,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.78248808473983</v>
+        <v>1.799755193832825</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.564452645722234</v>
@@ -7535,7 +7337,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.797168609961495</v>
+        <v>1.819618523483259</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.334018401453975</v>
@@ -7624,7 +7426,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.795226436190891</v>
+        <v>1.814096227924396</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.724519402148482</v>
@@ -7713,7 +7515,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.788937049672895</v>
+        <v>1.819488297481438</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.421516537340223</v>
@@ -7802,7 +7604,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.782165899145088</v>
+        <v>1.813299549002188</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.286856914077475</v>
@@ -7891,7 +7693,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.779905458101349</v>
+        <v>1.8103783306433</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.727255147454029</v>
@@ -7980,7 +7782,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.822467339084124</v>
+        <v>1.846572199531124</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.477355967599988</v>
@@ -8069,7 +7871,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.826039199951526</v>
+        <v>1.852716008692515</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.437726102196577</v>
@@ -8158,7 +7960,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.846937194486246</v>
+        <v>1.869841388725283</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.09593946559917</v>
@@ -8247,7 +8049,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.810445163888837</v>
+        <v>1.835919424821403</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.226876227047497</v>
@@ -8336,7 +8138,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.798150175363687</v>
+        <v>1.824262827526762</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.179852119941723</v>
@@ -8425,7 +8227,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.837609623310092</v>
+        <v>1.856470006386526</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.965749712044806</v>
@@ -8514,7 +8316,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.843783012968987</v>
+        <v>1.857150396296087</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.096973310101767</v>
@@ -8603,7 +8405,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.814084802771662</v>
+        <v>1.836305652655804</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.434101951651354</v>
@@ -8692,7 +8494,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.80465351213866</v>
+        <v>1.826432829078295</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.189181688425307</v>
@@ -8781,7 +8583,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.792411289048335</v>
+        <v>1.812880314030013</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.03119232468671</v>
@@ -8870,7 +8672,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.732266475608023</v>
+        <v>1.748554424061029</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.788760301609585</v>
@@ -8959,7 +8761,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.540441577196151</v>
+        <v>1.577992049178199</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.770228892566465</v>
@@ -9048,7 +8850,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.517526440511104</v>
+        <v>1.550569244677569</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.787194137233252</v>
@@ -9137,7 +8939,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.513459689981683</v>
+        <v>1.545871717433476</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.795534886797144</v>
@@ -9226,7 +9028,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.490130861563009</v>
+        <v>1.521946082542863</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.761284480818875</v>
@@ -9315,7 +9117,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.483104324446926</v>
+        <v>1.514169663412261</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.760638681066933</v>
@@ -9404,7 +9206,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.480239734495185</v>
+        <v>1.511804057957073</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.774159498112479</v>
@@ -9493,7 +9295,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.478632227220111</v>
+        <v>1.511893199602627</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.740048334763548</v>
@@ -9582,7 +9384,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.533458567815927</v>
+        <v>1.575944027032855</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.810457165686361</v>
@@ -9671,7 +9473,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.491089594878154</v>
+        <v>1.530484312759244</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.831354547648632</v>
@@ -9760,7 +9562,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.471792865283965</v>
+        <v>1.514204400377412</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.853120902549332</v>
@@ -9849,7 +9651,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.472239709833704</v>
+        <v>1.515429987224428</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.833805288913636</v>
@@ -9938,7 +9740,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.479263538561527</v>
+        <v>1.524005688796631</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.852012394422021</v>
@@ -10027,7 +9829,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.48126348665925</v>
+        <v>1.520952797022486</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.866952416199457</v>
@@ -10116,7 +9918,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.46902761367443</v>
+        <v>1.510130027323051</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.862168670469556</v>
@@ -10205,7 +10007,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.53139059966286</v>
+        <v>1.558586304173138</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.632404635484453</v>
@@ -10294,7 +10096,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.607913665484525</v>
+        <v>1.643627303533236</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.158563994650335</v>
@@ -10383,7 +10185,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.610262007923785</v>
+        <v>1.642431254407832</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.217824908214157</v>
@@ -10472,7 +10274,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.604533136800874</v>
+        <v>1.637737769793492</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.249348802988148</v>
@@ -10561,7 +10363,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.60430193376799</v>
+        <v>1.639298830881035</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.253049511855691</v>
@@ -10650,7 +10452,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.576538799219887</v>
+        <v>1.613616700785369</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.249747932744776</v>
@@ -10739,7 +10541,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.558634227468814</v>
+        <v>1.58914553701957</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.17826011012497</v>
@@ -10828,7 +10630,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.529196491891897</v>
+        <v>1.561177370536238</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.305886589732867</v>
@@ -10917,7 +10719,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.520640823147948</v>
+        <v>1.532876631445741</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.997683354648689</v>
@@ -11006,7 +10808,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.565926782353411</v>
+        <v>1.578986720101398</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.164467286982973</v>
@@ -11095,7 +10897,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.562846359097307</v>
+        <v>1.576167612060656</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.861765741100227</v>
@@ -11184,7 +10986,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.55367816248732</v>
+        <v>1.571030896791588</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.710235179913924</v>
@@ -11273,7 +11075,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.561422936897124</v>
+        <v>1.579886293063573</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.737216713914405</v>
@@ -11362,7 +11164,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.578235222525774</v>
+        <v>1.59535383954883</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.635444772242507</v>
@@ -11451,7 +11253,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.611962041703058</v>
+        <v>1.629189730340026</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.693066934688868</v>
@@ -11540,7 +11342,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.632296521773014</v>
+        <v>1.650545444081487</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.705972160686876</v>
@@ -11629,7 +11431,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.662445783608319</v>
+        <v>1.680691936050056</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.948532261553594</v>
@@ -11718,7 +11520,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.659906869088914</v>
+        <v>1.680314267464461</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.766225606045406</v>
@@ -11807,7 +11609,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.675169087759866</v>
+        <v>1.691572851755186</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.957210516020799</v>
@@ -11896,7 +11698,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.704990524719711</v>
+        <v>1.715193476988431</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.998466809825547</v>
@@ -11985,7 +11787,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.757559513068293</v>
+        <v>1.754981182133954</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.884750759940652</v>
@@ -12074,7 +11876,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.818314585365166</v>
+        <v>1.809928425108502</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.054116409080765</v>
@@ -12163,7 +11965,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.858500219683926</v>
+        <v>1.845935405795513</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.374389493432738</v>
@@ -12252,7 +12054,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.841251605556673</v>
+        <v>1.83415636656094</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.545169847586666</v>
@@ -12341,7 +12143,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.844641731741723</v>
+        <v>1.834902722084867</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.515171156219847</v>
@@ -12430,7 +12232,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.881286532363929</v>
+        <v>1.861519908496709</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.374707364569808</v>
@@ -12519,7 +12321,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.88559798111394</v>
+        <v>1.864845873352435</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.820973155678557</v>
@@ -12608,7 +12410,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.882945597390141</v>
+        <v>1.866175731084538</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.696713328668868</v>
@@ -12697,7 +12499,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.856430043136646</v>
+        <v>1.851605063488464</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.207994193645713</v>
@@ -12786,7 +12588,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.861148367191684</v>
+        <v>1.857622052032944</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.45722461923433</v>
@@ -12875,7 +12677,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.858658828508774</v>
+        <v>1.856571772589513</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.538243551918035</v>
@@ -12964,7 +12766,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.874877066515968</v>
+        <v>1.864829642830925</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.509989612248922</v>
@@ -13250,7 +13052,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.690813517181998</v>
+        <v>1.702242554003158</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.908974740765269</v>
@@ -13339,7 +13141,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.690838559131733</v>
+        <v>1.703881899178101</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.793847642591365</v>
@@ -13428,7 +13230,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.697261981731047</v>
+        <v>1.709199584169049</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.815296279553904</v>
@@ -13517,7 +13319,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.695631631199945</v>
+        <v>1.708051912461896</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.796050475297451</v>
@@ -13606,7 +13408,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.690068880575984</v>
+        <v>1.700276583371506</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.515895614551499</v>
@@ -13695,7 +13497,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.671360693516492</v>
+        <v>1.672464834126126</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.350801668047913</v>
@@ -13784,7 +13586,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.697583794312217</v>
+        <v>1.676448322073168</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.041565370325365</v>
@@ -13873,7 +13675,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.681941975661097</v>
+        <v>1.653636466666098</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.534466652801641</v>
@@ -13962,7 +13764,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.707730927367302</v>
+        <v>1.664976246940634</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.675511398945262</v>
@@ -14051,7 +13853,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.718139544771121</v>
+        <v>1.668689146125694</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.220951397921004</v>
@@ -14140,7 +13942,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.684198743108959</v>
+        <v>1.639595299386042</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.953586365966716</v>
@@ -14229,7 +14031,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.680800113831451</v>
+        <v>1.636377147536662</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.35422344208491</v>
@@ -14318,7 +14120,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.678102167116448</v>
+        <v>1.63404670987441</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.386222635056262</v>
@@ -14407,7 +14209,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.684021931343088</v>
+        <v>1.643648252531287</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.198840393767909</v>
@@ -14496,7 +14298,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.68214001000371</v>
+        <v>1.647633679768792</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.880400349564259</v>
@@ -14585,7 +14387,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.679124563822045</v>
+        <v>1.648125713670615</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.216457950996269</v>
@@ -14674,7 +14476,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.674677159493595</v>
+        <v>1.647303998709732</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.167299677372176</v>
@@ -14763,7 +14565,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.683850753684745</v>
+        <v>1.656225136064501</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.026017083313724</v>
@@ -14852,7 +14654,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.686626827900163</v>
+        <v>1.657677816782682</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.337920358011726</v>
@@ -14941,7 +14743,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.705910273394072</v>
+        <v>1.680937680637115</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.087215697193091</v>
@@ -15030,7 +14832,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.711039601157279</v>
+        <v>1.690258145798127</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.004833718152253</v>
@@ -15119,7 +14921,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.719918343350261</v>
+        <v>1.702350586722437</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.18485242266851</v>
@@ -15208,7 +15010,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.70738863691917</v>
+        <v>1.694806187229256</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.204352524903191</v>
@@ -15297,7 +15099,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.700072099285387</v>
+        <v>1.691301714704582</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.175916500236442</v>
@@ -15386,7 +15188,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.709611074277021</v>
+        <v>1.695318839628769</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.846065581466129</v>
@@ -15475,7 +15277,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.687071729180303</v>
+        <v>1.67579184810144</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.706155305502874</v>
@@ -15564,7 +15366,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.625122786166968</v>
+        <v>1.624289295068484</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.25824875498098</v>
@@ -15653,7 +15455,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.598422308118983</v>
+        <v>1.600377511641774</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.273378916178508</v>
@@ -15742,7 +15544,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.562031139358459</v>
+        <v>1.567144194125849</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.275453857157257</v>
@@ -15831,7 +15633,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.5167204898449</v>
+        <v>1.51839638934366</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.330172240665988</v>
@@ -15920,7 +15722,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.496672831039821</v>
+        <v>1.501578140583311</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.305611756270625</v>
@@ -16009,7 +15811,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.499181834681328</v>
+        <v>1.503896475825259</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.321506962472841</v>
@@ -16098,7 +15900,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.496349889793787</v>
+        <v>1.501292518570819</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.436017169147443</v>
@@ -16187,7 +15989,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.496876183768717</v>
+        <v>1.501457374358106</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.315897534295758</v>
@@ -16276,7 +16078,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.48948606125839</v>
+        <v>1.491302022550935</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.430153444296027</v>
@@ -16365,7 +16167,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.468195817297963</v>
+        <v>1.466366534796069</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.286403918862316</v>
@@ -16454,7 +16256,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.457625265952466</v>
+        <v>1.455804825714178</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.357155591851039</v>
@@ -16543,7 +16345,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.457181727027808</v>
+        <v>1.452964169008897</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.278794003871598</v>
@@ -16632,7 +16434,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.441202365920088</v>
+        <v>1.43587729852808</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.315651125393553</v>
@@ -16721,7 +16523,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.429883797199596</v>
+        <v>1.433924415315658</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.403727163888885</v>
@@ -16810,7 +16612,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.455474477445394</v>
+        <v>1.462985663969087</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.373687195787184</v>
@@ -16899,7 +16701,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.469591904643313</v>
+        <v>1.477273071591483</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.510665480593055</v>
@@ -16988,7 +16790,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.471469981985265</v>
+        <v>1.480765129550859</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.364970008366147</v>
@@ -17077,7 +16879,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.467311703174532</v>
+        <v>1.474802440523737</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.444215286621965</v>
@@ -17166,7 +16968,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.493676328100544</v>
+        <v>1.499252342836874</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.205289221795469</v>
@@ -17255,7 +17057,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.463322733451206</v>
+        <v>1.467176203581818</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.547211899780091</v>
@@ -17344,7 +17146,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.427855253599033</v>
+        <v>1.432604142945267</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.429960477091148</v>
@@ -17433,7 +17235,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.42867856508909</v>
+        <v>1.434187097332186</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.521982004149687</v>
@@ -17522,7 +17324,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.423146641809471</v>
+        <v>1.427076601558786</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.528191984771676</v>
@@ -17611,7 +17413,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.3909959519796</v>
+        <v>1.393869059127666</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.560850713104794</v>
@@ -17700,7 +17502,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.368513665257747</v>
+        <v>1.372347091894343</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.352941191263751</v>
@@ -17789,7 +17591,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.366834430515414</v>
+        <v>1.369024746414775</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.465292907236961</v>
@@ -17878,7 +17680,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.373589242030405</v>
+        <v>1.373418597522337</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.420375780612863</v>
@@ -17967,7 +17769,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.389801043309326</v>
+        <v>1.386147065081631</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.147718315573804</v>
@@ -18056,7 +17858,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.386726990672975</v>
+        <v>1.378831028965357</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.338404960098925</v>
@@ -18145,7 +17947,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.387063423469834</v>
+        <v>1.378527904787782</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.344071240149091</v>
@@ -18234,7 +18036,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.39395566311218</v>
+        <v>1.385452472386887</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.271526540446587</v>
@@ -18323,7 +18125,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.403893844351115</v>
+        <v>1.398030973951441</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.381224128860244</v>
@@ -18412,7 +18214,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.42664038046467</v>
+        <v>1.421956984318389</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.330828667987927</v>
@@ -18501,7 +18303,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.454529200702024</v>
+        <v>1.448465681647725</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.039911583847781</v>
@@ -18590,7 +18392,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.488039803223768</v>
+        <v>1.476739765002425</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.11137614382939</v>
@@ -18679,7 +18481,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.515452083092672</v>
+        <v>1.501535381178124</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.272129341420199</v>
@@ -18768,7 +18570,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.514666609558984</v>
+        <v>1.499787520271942</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.284154899090253</v>
@@ -18857,7 +18659,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.513326648225791</v>
+        <v>1.494191814478576</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.186442080531551</v>
@@ -18946,7 +18748,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.551276919994393</v>
+        <v>1.536978546615097</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.294222502577437</v>
@@ -19035,7 +18837,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.605863705925555</v>
+        <v>1.580720078614739</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.662631344763598</v>
@@ -19124,7 +18926,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.605334544479103</v>
+        <v>1.580393525286251</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.070668623990484</v>
@@ -19213,7 +19015,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.509444928180405</v>
+        <v>1.499983513577054</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.894200795398747</v>
@@ -19302,7 +19104,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.512852768248869</v>
+        <v>1.501808114220649</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.888731119847347</v>
@@ -19391,7 +19193,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.514891991124136</v>
+        <v>1.506322539858036</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.88327948858598</v>
@@ -19480,7 +19282,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.513530154338773</v>
+        <v>1.501243231370574</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.911250858018453</v>
@@ -19569,7 +19371,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.507708517825537</v>
+        <v>1.500700966171132</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.895602682849125</v>
@@ -19658,7 +19460,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.501301396386888</v>
+        <v>1.4933911824884</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.965619375506164</v>
@@ -19747,7 +19549,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.497927101970925</v>
+        <v>1.48917579673033</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.921854185235233</v>
@@ -19836,7 +19638,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.497674808648803</v>
+        <v>1.487661471470011</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.899206749246565</v>
@@ -19925,7 +19727,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.493810803578938</v>
+        <v>1.485790957362142</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.923655181753269</v>
@@ -20211,7 +20013,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.842649109472696</v>
+        <v>1.838707630352526</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.915336613038001</v>
@@ -20300,7 +20102,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.847626902459802</v>
+        <v>1.841101937103906</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.089862019862252</v>
@@ -20389,7 +20191,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.847318945235207</v>
+        <v>1.841572049767793</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.885314934439465</v>
@@ -20478,7 +20280,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.861789178707453</v>
+        <v>1.850006870365268</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.933830430904576</v>
@@ -20567,7 +20369,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.854116341615468</v>
+        <v>1.844181473003611</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.990081346535906</v>
@@ -20656,7 +20458,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.847359808635956</v>
+        <v>1.83805991377738</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.925207167963927</v>
@@ -20745,7 +20547,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.838960308438778</v>
+        <v>1.824908373364482</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.858340053626341</v>
@@ -20834,7 +20636,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.834580380427438</v>
+        <v>1.819758014175904</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.466303384720767</v>
@@ -20923,7 +20725,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.844939006615648</v>
+        <v>1.830696472838206</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.664421237849207</v>
@@ -21012,7 +20814,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.84582655202371</v>
+        <v>1.82599041967711</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.505451657766898</v>
@@ -21101,7 +20903,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.839557164484275</v>
+        <v>1.819279118855155</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.482260417589264</v>
@@ -21190,7 +20992,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.84049607315988</v>
+        <v>1.822287732377863</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.881867900251528</v>
@@ -21279,7 +21081,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.847886836056884</v>
+        <v>1.826017875945314</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.344785447483918</v>
@@ -21368,7 +21170,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.848198808008063</v>
+        <v>1.826700642508789</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.777368718146862</v>
@@ -21457,7 +21259,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.855779732851342</v>
+        <v>1.83519017923507</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.959817751615722</v>
@@ -21546,7 +21348,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.853107294180307</v>
+        <v>1.829202625581293</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.997345647097411</v>
@@ -21635,7 +21437,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.850587923253975</v>
+        <v>1.833338874320276</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.856513516761899</v>
@@ -21724,7 +21526,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.847478196379701</v>
+        <v>1.8327751937075</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.243666274163435</v>
@@ -21813,7 +21615,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.845434637601556</v>
+        <v>1.834160207680964</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.944113121185083</v>
@@ -21902,7 +21704,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.855347547529394</v>
+        <v>1.842750018106109</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.879690110703638</v>
@@ -21991,7 +21793,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.864642366293404</v>
+        <v>1.853869248915171</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.301260877478407</v>
@@ -22080,7 +21882,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.873984640205059</v>
+        <v>1.867566335977473</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.720194156356097</v>
@@ -22169,7 +21971,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.85703963511558</v>
+        <v>1.854288743943352</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.691909199530318</v>
@@ -22258,7 +22060,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.852590344090226</v>
+        <v>1.84672292143238</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.62898463001539</v>
@@ -22347,7 +22149,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.867025149344282</v>
+        <v>1.863820466259083</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.417729292470226</v>
@@ -22436,7 +22238,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.87020903113821</v>
+        <v>1.867286529576256</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.294576342460768</v>
@@ -22525,7 +22327,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.850929292049255</v>
+        <v>1.84950814782602</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.834832899697557</v>
@@ -22614,7 +22416,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.849099458469538</v>
+        <v>1.845417941957938</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.000124064398309</v>
@@ -22703,7 +22505,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.841314584498816</v>
+        <v>1.837970043847093</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.121939012468369</v>
@@ -22792,7 +22594,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.823091490704376</v>
+        <v>1.820795156649079</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.451376838334777</v>
@@ -22881,7 +22683,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.785540369582425</v>
+        <v>1.789861507546954</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.607909879637488</v>
@@ -22970,7 +22772,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.77468880823757</v>
+        <v>1.773127853845718</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.426963943207742</v>
@@ -23059,7 +22861,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.77972104241092</v>
+        <v>1.773273753815258</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.343590407055593</v>
@@ -23148,7 +22950,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.772706751491265</v>
+        <v>1.761968891650543</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.458939581218284</v>
@@ -23237,7 +23039,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.774116847630874</v>
+        <v>1.767286475423152</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.500856377979163</v>
@@ -23326,7 +23128,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.765350706551439</v>
+        <v>1.756241488045474</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.402370530379651</v>
@@ -23415,7 +23217,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.768294259864997</v>
+        <v>1.755554894987458</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.514549545863318</v>
@@ -23504,7 +23306,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.807366033371194</v>
+        <v>1.795316178066035</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.470550543596277</v>
@@ -23593,7 +23395,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.790687195666327</v>
+        <v>1.789620927161101</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.545985517895997</v>
@@ -23682,7 +23484,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.780782742547668</v>
+        <v>1.778880269813837</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.484666940341519</v>
@@ -23771,7 +23573,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.788386433180922</v>
+        <v>1.787958028889385</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.540020169541085</v>
@@ -23860,7 +23662,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.787178012303252</v>
+        <v>1.785133229065874</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.534653588713538</v>
@@ -23949,7 +23751,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.788174016786431</v>
+        <v>1.786797091556861</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.582499620312178</v>
@@ -24038,7 +23840,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.779318261622638</v>
+        <v>1.778177359786057</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.619740540020846</v>
@@ -24127,7 +23929,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.801160248702733</v>
+        <v>1.794931366062317</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.295634082457296</v>
@@ -24216,7 +24018,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.803566648109183</v>
+        <v>1.796464086843011</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.957083665192135</v>
@@ -24305,7 +24107,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.794783056213266</v>
+        <v>1.790600011203123</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.956550381148174</v>
@@ -24394,7 +24196,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.7906386376942</v>
+        <v>1.785708174948058</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.989816905686098</v>
@@ -24483,7 +24285,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.783326657092668</v>
+        <v>1.78075062336923</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.915780041802021</v>
@@ -24572,7 +24374,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.768511348934801</v>
+        <v>1.767655735711598</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.002651051675253</v>
@@ -24661,7 +24463,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.754183861986181</v>
+        <v>1.753241558755969</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.90856021632944</v>
@@ -24750,7 +24552,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.735846599034783</v>
+        <v>1.732698667215747</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.800520350992839</v>
@@ -24839,7 +24641,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.726351052353006</v>
+        <v>1.71384020698553</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.597478274718878</v>
@@ -24928,7 +24730,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.732751795667784</v>
+        <v>1.70807884575749</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.844041715115103</v>
@@ -25017,7 +24819,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.723614446351403</v>
+        <v>1.697141400625879</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.234397990322734</v>
@@ -25106,7 +24908,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.715227648650636</v>
+        <v>1.684710057527971</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.991275949434935</v>
@@ -25195,7 +24997,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.724126437071009</v>
+        <v>1.692161326214152</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.20257879367397</v>
@@ -25284,7 +25086,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.720339184772136</v>
+        <v>1.690049615463768</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.376105699614508</v>
@@ -25373,7 +25175,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.737192991487495</v>
+        <v>1.704752548432084</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.928621478450359</v>
@@ -25462,7 +25264,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.753145532265118</v>
+        <v>1.718760815436029</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.137484852233216</v>
@@ -25551,7 +25353,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.764183329514114</v>
+        <v>1.726232587781026</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.625138094866808</v>
@@ -25640,7 +25442,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.77081618026619</v>
+        <v>1.732875318145756</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.614198928101702</v>
@@ -25729,7 +25531,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.774359297591561</v>
+        <v>1.733570869465287</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.049231002962988</v>
@@ -25818,7 +25620,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.788210825666209</v>
+        <v>1.745220005555317</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.317889371875105</v>
@@ -25907,7 +25709,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.807044880064546</v>
+        <v>1.758183879141837</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.672232651810476</v>
@@ -25996,7 +25798,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.825418810337716</v>
+        <v>1.777174496051427</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>4.212430153910447</v>
@@ -26085,7 +25887,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.841909199880764</v>
+        <v>1.800089405310656</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>4.110353567028848</v>
@@ -26174,7 +25976,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.830120583198206</v>
+        <v>1.795582688538596</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>4.113304968049313</v>
@@ -26263,7 +26065,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.834561996701289</v>
+        <v>1.80022018720855</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.508151153096868</v>
@@ -26352,7 +26154,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.848016947813827</v>
+        <v>1.817247991213283</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.918557769863293</v>
@@ -26441,7 +26243,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.848645313353036</v>
+        <v>1.81208762462757</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>4.33098690549331</v>
@@ -26530,7 +26332,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.850096256356105</v>
+        <v>1.817411165798363</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.779760097115982</v>
@@ -26619,7 +26421,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.850942420283431</v>
+        <v>1.823626122663609</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.515859651483378</v>
@@ -26708,7 +26510,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.85433099350783</v>
+        <v>1.825985618078909</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>4.025464577808203</v>
@@ -26797,7 +26599,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.854749749166021</v>
+        <v>1.825841784164177</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.735309368176598</v>
@@ -26886,7 +26688,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.862874503193102</v>
+        <v>1.831314251610103</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>4.288786311418102</v>
@@ -27172,7 +26974,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.817574857600175</v>
+        <v>1.800449885535393</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.976795718790385</v>
@@ -27261,7 +27063,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.818946081206583</v>
+        <v>1.798453277078121</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.670833799856923</v>
@@ -27350,7 +27152,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.825709863391224</v>
+        <v>1.807244684880595</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.877067031907594</v>
@@ -27439,7 +27241,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.854875292812937</v>
+        <v>1.836868728953499</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.322392042107906</v>
@@ -27528,7 +27330,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.851908682909974</v>
+        <v>1.83702132025824</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.71574578419915</v>
@@ -27617,7 +27419,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.853338708637885</v>
+        <v>1.838236173624732</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.339778966639964</v>
@@ -27706,7 +27508,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.866949156966193</v>
+        <v>1.84752202390591</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.881155888654392</v>
@@ -27795,7 +27597,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.866490367823304</v>
+        <v>1.842489025640317</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.730623601590244</v>
@@ -27884,7 +27686,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.876487282952862</v>
+        <v>1.851581961737044</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.732719174836721</v>
@@ -27973,7 +27775,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.873766199956449</v>
+        <v>1.848294051526019</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.492942575834434</v>
@@ -28062,7 +27864,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.871800305521748</v>
+        <v>1.845272522732915</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.833093385526775</v>
@@ -28151,7 +27953,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.871469728860147</v>
+        <v>1.837656054631859</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.771433034518307</v>
@@ -28240,7 +28042,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.868550640670154</v>
+        <v>1.835943287605207</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.593607247730818</v>
@@ -28329,7 +28131,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.87047326202066</v>
+        <v>1.838118958499088</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.167809143219614</v>
@@ -28418,7 +28220,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.878410459018095</v>
+        <v>1.849585500612787</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.832043188879839</v>
@@ -28507,7 +28309,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.871335032224067</v>
+        <v>1.837263491101971</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.592060278084796</v>
@@ -28596,7 +28398,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.87112214953287</v>
+        <v>1.846717839193201</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.726933577679238</v>
@@ -28685,7 +28487,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.865257386451309</v>
+        <v>1.842554399644996</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.708550979627881</v>
@@ -28774,7 +28576,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.865024755956155</v>
+        <v>1.843085255640622</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.826200292211193</v>
@@ -28863,7 +28665,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.877839850255978</v>
+        <v>1.8570013570121</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.475372790274638</v>
@@ -28952,7 +28754,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.880130435266262</v>
+        <v>1.855569624203194</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.004149189152468</v>
@@ -29041,7 +28843,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.88524536608706</v>
+        <v>1.854143585500934</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.033289556512339</v>
@@ -29130,7 +28932,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.879662312195299</v>
+        <v>1.85637831173208</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.569718492252557</v>
@@ -29219,7 +29021,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.878193300576324</v>
+        <v>1.856499777714071</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.356702419608629</v>
@@ -29308,7 +29110,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.887338218709574</v>
+        <v>1.868171733454045</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.138343603094154</v>
@@ -29397,7 +29199,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.881475029014738</v>
+        <v>1.862234514036523</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.473258262965155</v>
@@ -29486,7 +29288,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.870656650716552</v>
+        <v>1.852801733092296</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.092726675201922</v>
@@ -29575,7 +29377,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.869443696615307</v>
+        <v>1.850905654567687</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.350503550146297</v>
@@ -29664,7 +29466,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.858517791920768</v>
+        <v>1.836552226671555</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.211317676960271</v>
@@ -29753,7 +29555,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.852294936853498</v>
+        <v>1.828839085867228</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.800380451798195</v>
@@ -29842,7 +29644,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.820153574124264</v>
+        <v>1.807651546602835</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.893293767115241</v>
@@ -29931,7 +29733,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.818210047505028</v>
+        <v>1.794825415824386</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.878914720821518</v>
@@ -30020,7 +29822,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.827627523154854</v>
+        <v>1.806018448678909</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.707565468680489</v>
@@ -30109,7 +29911,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.826928939195978</v>
+        <v>1.795580064449092</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.739382356201769</v>
@@ -30198,7 +30000,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.823265961786523</v>
+        <v>1.795385206532312</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.845994552829875</v>
@@ -30287,7 +30089,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.82068973485211</v>
+        <v>1.796259924585509</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.682501398893375</v>
@@ -30376,7 +30178,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.822525124609064</v>
+        <v>1.798530337954296</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.809562729558752</v>
@@ -30465,7 +30267,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.838372069701721</v>
+        <v>1.811729824550149</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.846800421073938</v>
@@ -30554,7 +30356,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.835140431467931</v>
+        <v>1.806865032520678</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.999565592005009</v>
@@ -30643,7 +30445,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.832229884366499</v>
+        <v>1.809160954765827</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.898205773937082</v>
@@ -30732,7 +30534,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.844107405202416</v>
+        <v>1.822282624896292</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.796038180638032</v>
@@ -30821,7 +30623,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.845218416968504</v>
+        <v>1.819626227561853</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.958885515518148</v>
@@ -30910,7 +30712,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.845534828642297</v>
+        <v>1.824314725293045</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.072256877893401</v>
@@ -30999,7 +30801,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.844283991453721</v>
+        <v>1.823414539525246</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.802765434799406</v>
@@ -31088,7 +30890,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.843802625623558</v>
+        <v>1.819821348915063</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.494034461295415</v>
@@ -31177,7 +30979,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.84530608448081</v>
+        <v>1.814437456081032</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.664910278773835</v>
@@ -31266,7 +31068,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.843841510283204</v>
+        <v>1.817993396286578</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.787615464540931</v>
@@ -31355,7 +31157,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.833474412665183</v>
+        <v>1.806405841772596</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.799534283843254</v>
@@ -31444,7 +31246,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.829769170102293</v>
+        <v>1.804681426452545</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.734354189132727</v>
@@ -31533,7 +31335,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.821103088974876</v>
+        <v>1.793753695916973</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.361491465599414</v>
@@ -31622,7 +31424,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.79676694929441</v>
+        <v>1.770135179243999</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.716919911545846</v>
@@ -31711,7 +31513,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.785523523471336</v>
+        <v>1.765446604317649</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.353147289563521</v>
@@ -31800,7 +31602,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.780963952516973</v>
+        <v>1.757473772589325</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.002445362580447</v>
@@ -31889,7 +31691,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.775247752299679</v>
+        <v>1.750176756746974</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.304147577330093</v>
@@ -31978,7 +31780,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.764904688269734</v>
+        <v>1.730760210967348</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.724600774295353</v>
@@ -32067,7 +31869,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.761283034362295</v>
+        <v>1.723397672708834</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.245217662388707</v>
@@ -32156,7 +31958,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.769730271104193</v>
+        <v>1.727040043188505</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.200474525351541</v>
@@ -32245,7 +32047,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.770155269131232</v>
+        <v>1.728245078742307</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.479309791025776</v>
@@ -32334,7 +32136,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.77698970797012</v>
+        <v>1.73326843496725</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.270559305542172</v>
@@ -32423,7 +32225,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.79983675082243</v>
+        <v>1.754038019809832</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.412773277792299</v>
@@ -32512,7 +32314,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.816685006580047</v>
+        <v>1.770594676117586</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.388959645008357</v>
@@ -32601,7 +32403,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.822446975204713</v>
+        <v>1.772491144298198</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.513378473958681</v>
@@ -32690,7 +32492,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.832890515429782</v>
+        <v>1.781706243628876</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.41647421512347</v>
@@ -32779,7 +32581,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.840359545183619</v>
+        <v>1.790971018873504</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.382224001422619</v>
@@ -32868,7 +32670,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.852369312084656</v>
+        <v>1.799139246878176</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.524036394933685</v>
@@ -32957,7 +32759,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.88719119463334</v>
+        <v>1.828092549250863</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>4.247213721710311</v>
@@ -33046,7 +32848,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.894879911099601</v>
+        <v>1.837154985537202</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.976512506096068</v>
@@ -33135,7 +32937,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.883977253996379</v>
+        <v>1.828826987272332</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>4.635611897813616</v>
@@ -33224,7 +33026,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.882709573936944</v>
+        <v>1.827021378546558</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.898590117511646</v>
@@ -33313,7 +33115,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.877561294858456</v>
+        <v>1.821830951379559</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>4.166446880275128</v>
@@ -33402,7 +33204,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.880931890306828</v>
+        <v>1.824757983077256</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.985865319342267</v>
@@ -33491,7 +33293,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.876616297470112</v>
+        <v>1.83089899806658</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.961232581704864</v>
@@ -33580,7 +33382,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.863246911366601</v>
+        <v>1.817293434969435</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.305916901578279</v>
@@ -33669,7 +33471,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.865072442272365</v>
+        <v>1.818320410459949</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.515484861508209</v>
@@ -33758,7 +33560,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.861464338668827</v>
+        <v>1.813437939329241</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.484593605209762</v>
@@ -33847,7 +33649,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.857350995072864</v>
+        <v>1.813085866866569</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.817203506609557</v>
@@ -34133,7 +33935,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.584473142180513</v>
+        <v>1.590881096149942</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.630670633428582</v>
@@ -34222,7 +34024,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.594039125996686</v>
+        <v>1.597428841531558</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.465310724550841</v>
@@ -34311,7 +34113,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.602736947255067</v>
+        <v>1.605226135795972</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.608763359359564</v>
@@ -34400,7 +34202,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.604402713315912</v>
+        <v>1.602912404867503</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.550447281463252</v>
@@ -34489,7 +34291,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.607492936418383</v>
+        <v>1.600458939925649</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.58820005624434</v>
@@ -34578,7 +34380,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.619311802841581</v>
+        <v>1.608961737427129</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.403271365189703</v>
@@ -34667,7 +34469,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.675235766804445</v>
+        <v>1.646307604519431</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.142725802561971</v>
@@ -34756,7 +34558,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.672874143392004</v>
+        <v>1.643686007522818</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.123201231411675</v>
@@ -34845,7 +34647,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.663230053995252</v>
+        <v>1.63529255860734</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.076113389742942</v>
@@ -34934,7 +34736,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.667049363845932</v>
+        <v>1.637449984833783</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.050611566027432</v>
@@ -35023,7 +34825,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.646834307352101</v>
+        <v>1.615869637705531</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.978845289548815</v>
@@ -35112,7 +34914,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.642283093457318</v>
+        <v>1.607419896184403</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.725394087083745</v>
@@ -35201,7 +35003,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.64713292116417</v>
+        <v>1.610766432426215</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.899126306929044</v>
@@ -35290,7 +35092,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.657951359810391</v>
+        <v>1.621486383780752</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.950469375926159</v>
@@ -35379,7 +35181,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.66111925848978</v>
+        <v>1.622226167839751</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.879239260734702</v>
@@ -35468,7 +35270,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.662911884089127</v>
+        <v>1.615434276312724</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.173587562460149</v>
@@ -35557,7 +35359,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.663189060559517</v>
+        <v>1.611671737268937</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.029594421636566</v>
@@ -35646,7 +35448,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.660558705808179</v>
+        <v>1.611438922834068</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.007631286260486</v>
@@ -35735,7 +35537,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.661281532816988</v>
+        <v>1.607565345542386</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.941874025099742</v>
@@ -35824,7 +35626,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.675006717185921</v>
+        <v>1.625329912697669</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.881645595918461</v>
@@ -35913,7 +35715,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.673661074790829</v>
+        <v>1.622710058315439</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.070853331465724</v>
@@ -36002,7 +35804,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.674010305561605</v>
+        <v>1.636600989848609</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.946808130418973</v>
@@ -36091,7 +35893,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.670752100779496</v>
+        <v>1.63127389141289</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.871575248036372</v>
@@ -36180,7 +35982,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.663745710956172</v>
+        <v>1.628479597986871</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.132160873825079</v>
@@ -36269,7 +36071,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.670056833251619</v>
+        <v>1.637690857694406</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.97998477804837</v>
@@ -36358,7 +36160,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.651309101503186</v>
+        <v>1.618539962798139</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.562463180371843</v>
@@ -36447,7 +36249,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.61056923304795</v>
+        <v>1.586710393409301</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.526382376428758</v>
@@ -36536,7 +36338,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.570660178367196</v>
+        <v>1.550646245042777</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.524528246019763</v>
@@ -36625,7 +36427,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.538638653374363</v>
+        <v>1.520832024459032</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.623552303107834</v>
@@ -36714,7 +36516,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.503170721270618</v>
+        <v>1.485405182992887</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.600666318592376</v>
@@ -36803,7 +36605,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.478153497173605</v>
+        <v>1.468082833436535</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.480939131911445</v>
@@ -36892,7 +36694,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.468870514997796</v>
+        <v>1.45855517700144</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.61250663487155</v>
@@ -36981,7 +36783,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.464026979523229</v>
+        <v>1.451627862601585</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.62309925033036</v>
@@ -37070,7 +36872,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.466389919814721</v>
+        <v>1.456988501175505</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.423412217722715</v>
@@ -37159,7 +36961,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.460141159113047</v>
+        <v>1.44820086221938</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.586890021616154</v>
@@ -37248,7 +37050,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.4515622234212</v>
+        <v>1.439708029412974</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.536003162498269</v>
@@ -37337,7 +37139,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.452399485953527</v>
+        <v>1.439986990148344</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.57877701539472</v>
@@ -37426,7 +37228,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.458612383461661</v>
+        <v>1.443973566522549</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.518076531751154</v>
@@ -37515,7 +37317,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.439206302285178</v>
+        <v>1.424619617654207</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.593700859418669</v>
@@ -37604,7 +37406,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.429767433631866</v>
+        <v>1.418809896242387</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.559145587786902</v>
@@ -37693,7 +37495,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.450578420386715</v>
+        <v>1.439858398367175</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.501294970555012</v>
@@ -37782,7 +37584,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.460971136734781</v>
+        <v>1.447659140889772</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.517612430413336</v>
@@ -37871,7 +37673,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.468573135771009</v>
+        <v>1.458579119365492</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.656186549928177</v>
@@ -37960,7 +37762,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.460983163866973</v>
+        <v>1.450286495356135</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.414964575598118</v>
@@ -38049,7 +37851,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.465858035820754</v>
+        <v>1.456702788827114</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.236026717184517</v>
@@ -38138,7 +37940,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.446620894116102</v>
+        <v>1.439955375080205</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.444976755514433</v>
@@ -38227,7 +38029,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.422401239103189</v>
+        <v>1.421428125726194</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.528571470564119</v>
@@ -38316,7 +38118,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.421815981285177</v>
+        <v>1.425373379369595</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.521570072435275</v>
@@ -38405,7 +38207,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.416924997879554</v>
+        <v>1.419083717631581</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.473669473238248</v>
@@ -38494,7 +38296,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.382417142158757</v>
+        <v>1.386413704920711</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.414548645662607</v>
@@ -38583,7 +38385,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.362174420383487</v>
+        <v>1.368542213232355</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.460467044063651</v>
@@ -38672,7 +38474,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.358083028686133</v>
+        <v>1.358899015755743</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.427802863766592</v>
@@ -38761,7 +38563,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.360458483282045</v>
+        <v>1.358178116194021</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.343195760765434</v>
@@ -38850,7 +38652,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.371667644983302</v>
+        <v>1.36768687322186</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.237411859438013</v>
@@ -38939,7 +38741,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.366233309620847</v>
+        <v>1.361608475890312</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.413865938485201</v>
@@ -39028,7 +38830,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.362599478162358</v>
+        <v>1.360691183211265</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.393773813152348</v>
@@ -39117,7 +38919,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.375863377577106</v>
+        <v>1.377242121020004</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.234090386969334</v>
@@ -39206,7 +39008,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.390101875002449</v>
+        <v>1.393982187084985</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.378599847262018</v>
@@ -39295,7 +39097,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.4190027535473</v>
+        <v>1.423261028773005</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.426683241835265</v>
@@ -39384,7 +39186,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.454274146051758</v>
+        <v>1.455437474467591</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.012694825819635</v>
@@ -39473,7 +39275,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.482957269720452</v>
+        <v>1.472751423606329</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.0850158407489</v>
@@ -39562,7 +39364,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.50449033513063</v>
+        <v>1.492247707372348</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.248152122542311</v>
@@ -39651,7 +39453,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.500808830782801</v>
+        <v>1.486192579386573</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.271828617981261</v>
@@ -39740,7 +39542,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.501137751868189</v>
+        <v>1.478175806107781</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.21644433645633</v>
@@ -39829,7 +39631,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.528600512290981</v>
+        <v>1.505694876935332</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.27460539135132</v>
@@ -39918,7 +39720,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.588640534491175</v>
+        <v>1.555702035321725</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.699224038109791</v>
@@ -40007,7 +39809,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.592251507226683</v>
+        <v>1.566511976258724</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.643677778699762</v>
@@ -40096,7 +39898,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.577496205824668</v>
+        <v>1.55859918806267</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.701039564385292</v>
@@ -40185,7 +39987,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.588096788990982</v>
+        <v>1.571131684168183</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.491218170459049</v>
@@ -40274,7 +40076,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.598568625154572</v>
+        <v>1.579938193440448</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.736453301272772</v>
@@ -40363,7 +40165,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.596818319335646</v>
+        <v>1.576811011649751</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.784755757289108</v>
@@ -40452,7 +40254,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.576448283612212</v>
+        <v>1.560021771430596</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.827785305141043</v>
@@ -40541,7 +40343,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.568112421414106</v>
+        <v>1.547793859768514</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.832999329621091</v>
@@ -40630,7 +40432,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.568003636018211</v>
+        <v>1.547309872031601</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.740435281879153</v>
@@ -40719,7 +40521,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.573003289991877</v>
+        <v>1.553991766977344</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.953467908776757</v>
@@ -40808,7 +40610,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.576919364826646</v>
+        <v>1.56069619600621</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.828193864362035</v>
@@ -41094,7 +40896,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.699629777040937</v>
+        <v>1.721946641717911</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.151916431422493</v>
@@ -41183,7 +40985,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.71653179116719</v>
+        <v>1.736010406284296</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.064413440349504</v>
@@ -41272,7 +41074,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.711319285860556</v>
+        <v>1.73209390297235</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.942676559032052</v>
@@ -41361,7 +41163,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.754464574591531</v>
+        <v>1.767960011777367</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.797371898709056</v>
@@ -41450,7 +41252,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.741963374600564</v>
+        <v>1.758253095883891</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.138495400156885</v>
@@ -41539,7 +41341,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.733148229319392</v>
+        <v>1.753345311059149</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.851782245305154</v>
@@ -41628,7 +41430,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.749283613558969</v>
+        <v>1.768072856367141</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.944287286170338</v>
@@ -41717,7 +41519,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.753720701265962</v>
+        <v>1.770732548879158</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.958662168094821</v>
@@ -41806,7 +41608,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.79126120825992</v>
+        <v>1.804500439327146</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.082822266051956</v>
@@ -41895,7 +41697,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.779885759527927</v>
+        <v>1.791705368784555</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.550637113535614</v>
@@ -41984,7 +41786,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.76802630559122</v>
+        <v>1.781872884944245</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.423572812021748</v>
@@ -42073,7 +41875,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.775849374534373</v>
+        <v>1.78631280848436</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.652093548621756</v>
@@ -42162,7 +41964,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.786903261339367</v>
+        <v>1.795742935885432</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.614136051310023</v>
@@ -42251,7 +42053,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.785850141779427</v>
+        <v>1.796456299285743</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.372434261911534</v>
@@ -42340,7 +42142,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.809067881303344</v>
+        <v>1.821892123957247</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.346152055362377</v>
@@ -42429,7 +42231,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.810097031249229</v>
+        <v>1.820227994969172</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.716746812402047</v>
@@ -42518,7 +42320,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.800179349781428</v>
+        <v>1.823488630301871</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.115775982143846</v>
@@ -42607,7 +42409,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.788089875375174</v>
+        <v>1.808718188853741</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.240962971080335</v>
@@ -42696,7 +42498,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.783014586162173</v>
+        <v>1.803633712340357</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.541890302280446</v>
@@ -42785,7 +42587,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.832496032193319</v>
+        <v>1.844775505395313</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.366053418989029</v>
@@ -42874,7 +42676,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.832117681838055</v>
+        <v>1.841567822893314</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.401603970044007</v>
@@ -42963,7 +42765,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.848517970638162</v>
+        <v>1.854215354716978</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.969899423131704</v>
@@ -43052,7 +42854,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.814595682752358</v>
+        <v>1.82449534171734</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.39381523709669</v>
@@ -43141,7 +42943,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.809151806472445</v>
+        <v>1.819211826597215</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.023696410615474</v>
@@ -43230,7 +43032,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.849122353510657</v>
+        <v>1.855694753744535</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.882362816302602</v>
@@ -43319,7 +43121,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.820261228921118</v>
+        <v>1.830760139947372</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.640279129272168</v>
@@ -43408,7 +43210,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.748362250997346</v>
+        <v>1.772906259682701</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.507854502503044</v>
@@ -43497,7 +43299,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.737527710697451</v>
+        <v>1.762116445323534</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.565282646539492</v>
@@ -43586,7 +43388,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.722552750901061</v>
+        <v>1.744513398455445</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.517183724696507</v>
@@ -43675,7 +43477,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.713650490252144</v>
+        <v>1.734235716433153</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.54368987274858</v>
@@ -43764,7 +43566,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.707456429898486</v>
+        <v>1.722594667958334</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.233750987556267</v>
@@ -43853,7 +43655,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.702846520907048</v>
+        <v>1.711970291363866</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.452805565560392</v>
@@ -43942,7 +43744,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.719802198850376</v>
+        <v>1.72870694360871</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.598962118489789</v>
@@ -44031,7 +43833,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.711755679853177</v>
+        <v>1.721215513454701</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.567336371590004</v>
@@ -44120,7 +43922,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.712578736444304</v>
+        <v>1.720120380065115</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.444672549553393</v>
@@ -44209,7 +44011,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.715381941839963</v>
+        <v>1.726400885966961</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.50822593037527</v>
@@ -44298,7 +44100,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.717071992658973</v>
+        <v>1.728135456614394</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.422938406463043</v>
@@ -44387,7 +44189,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.766984349717183</v>
+        <v>1.774413783623073</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.595758653260451</v>
@@ -44476,7 +44278,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.767103952147099</v>
+        <v>1.775286301405748</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.689274412410382</v>
@@ -44565,7 +44367,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.747226320162291</v>
+        <v>1.766664260906705</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.615490378659967</v>
@@ -44654,7 +44456,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.806551184951585</v>
+        <v>1.816158455475448</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.891590554660374</v>
@@ -44743,7 +44545,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.833930688579406</v>
+        <v>1.83978338455341</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.976485412948758</v>
@@ -44832,7 +44634,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.82636648706391</v>
+        <v>1.830010494603025</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.924508940974244</v>
@@ -44921,7 +44723,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.807463657506788</v>
+        <v>1.819032943860273</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.902947910376305</v>
@@ -45010,7 +44812,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.789697257064253</v>
+        <v>1.805962685055658</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.972722865728544</v>
@@ -45099,7 +44901,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.75845265807112</v>
+        <v>1.780841883663447</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.886974109736556</v>
@@ -45188,7 +44990,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.756669810752145</v>
+        <v>1.779334622907395</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.094310396731672</v>
@@ -45277,7 +45079,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.737893737826107</v>
+        <v>1.764597727992812</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.102589437668067</v>
@@ -45366,7 +45168,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.728294132883512</v>
+        <v>1.755871411661878</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.871249084856911</v>
@@ -45455,7 +45257,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.647450029375386</v>
+        <v>1.686600230803788</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.594793990739573</v>
@@ -45544,7 +45346,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.621083474007488</v>
+        <v>1.655996707877089</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.651623260789083</v>
@@ -45633,7 +45435,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.601860737424283</v>
+        <v>1.643718179471205</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.661000027859832</v>
@@ -45722,7 +45524,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.594188039527292</v>
+        <v>1.63409371774944</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.503252984881109</v>
@@ -45811,7 +45613,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.575709663640648</v>
+        <v>1.61093166361407</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.305378107996436</v>
@@ -45900,7 +45702,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.564486604205488</v>
+        <v>1.596428958982789</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.483345859116202</v>
@@ -45989,7 +45791,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.549840631459557</v>
+        <v>1.582869703843405</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.390562453508489</v>
@@ -46078,7 +45880,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.555408562875389</v>
+        <v>1.590882509395843</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.305382211948929</v>
@@ -46167,7 +45969,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.568468818610538</v>
+        <v>1.605305457994612</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.320293857598545</v>
@@ -46256,7 +46058,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.585840168398639</v>
+        <v>1.623634533672954</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.356729497429992</v>
@@ -46345,7 +46147,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.603717528776567</v>
+        <v>1.639203567372759</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.417416239783158</v>
@@ -46434,7 +46236,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.635193079215283</v>
+        <v>1.667083541703263</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.358187906510809</v>
@@ -46523,7 +46325,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.630976605561232</v>
+        <v>1.664852078528811</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.39998337452284</v>
@@ -46612,7 +46414,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.65047148340837</v>
+        <v>1.678488189659043</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.372862479577059</v>
@@ -46701,7 +46503,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.683097426570205</v>
+        <v>1.707607351609404</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.247757856192479</v>
@@ -46790,7 +46592,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.802081990078288</v>
+        <v>1.808010778773676</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.947795537835477</v>
@@ -46879,7 +46681,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.872769062526467</v>
+        <v>1.865394510408501</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.843315774313179</v>
@@ -46968,7 +46770,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.897850313159699</v>
+        <v>1.8831262400866</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.351720959249517</v>
@@ -47057,7 +46859,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.870652228882101</v>
+        <v>1.863387975921046</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.210706763531102</v>
@@ -47146,7 +46948,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.872502968273225</v>
+        <v>1.861896365559703</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.433340095679112</v>
@@ -47235,7 +47037,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.894384697078587</v>
+        <v>1.875325535933416</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.192897222943383</v>
@@ -47324,7 +47126,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.89789827571715</v>
+        <v>1.874822023291448</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.423292551331727</v>
@@ -47413,7 +47215,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.883712412430652</v>
+        <v>1.865509433777883</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.449847144150735</v>
@@ -47502,7 +47304,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.875453106396318</v>
+        <v>1.860770771555166</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.742053781492874</v>
@@ -47591,7 +47393,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.879898380086115</v>
+        <v>1.862373902948797</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.1176552871654</v>
@@ -47680,7 +47482,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.879177222307155</v>
+        <v>1.863020703259455</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.441680748107239</v>
@@ -47769,7 +47571,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.890627709236812</v>
+        <v>1.871039301842195</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.702441883945947</v>
